--- a/Optimisation_Allocation.xlsx
+++ b/Optimisation_Allocation.xlsx
@@ -570,7 +570,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -632,7 +632,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -695,7 +695,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -733,7 +733,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
